--- a/Data/EC/NIT-9004451581.xlsx
+++ b/Data/EC/NIT-9004451581.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F3F08F0-13E1-4B42-B194-E2F1A986CF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0824FB08-E153-4E34-840D-8267DA9F0314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8914C711-4ED1-48E3-9EF1-56ACB6C4E05B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C1DDAF9C-20D1-440A-BA61-2D4552DE7C74}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,142 +65,169 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1019056897</t>
+  </si>
+  <si>
+    <t>LEONARDO DAVID PEREZ RANGEL</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1050959833</t>
+  </si>
+  <si>
+    <t>ROBERTO CARLOS SANCHEZ BABILONIA</t>
+  </si>
+  <si>
+    <t>39413148</t>
+  </si>
+  <si>
+    <t>YANETH BANGUERA ZARZA</t>
+  </si>
+  <si>
+    <t>1143324083</t>
+  </si>
+  <si>
+    <t>SILVIA PAOLA ANGARITA JARA</t>
+  </si>
+  <si>
+    <t>1045673525</t>
+  </si>
+  <si>
+    <t>ALBERTO RAFAEL COTES ANGULO</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1047376584</t>
+  </si>
+  <si>
+    <t>DANIEL RICARDO ALVEAR CASTAÑEDA</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
     <t>1002197411</t>
   </si>
   <si>
     <t>JORLEIN MARTINEZ CASSIANI</t>
   </si>
   <si>
-    <t>2001</t>
+    <t>1810</t>
   </si>
   <si>
-    <t>1912</t>
+    <t>1811</t>
   </si>
   <si>
-    <t>1911</t>
+    <t>73199833</t>
   </si>
   <si>
-    <t>1910</t>
+    <t>EMERSON DAVID MUÑOZ DE ARCO</t>
   </si>
   <si>
-    <t>1909</t>
+    <t>73192233</t>
   </si>
   <si>
-    <t>1908</t>
+    <t>OSWALD MANUEL IGNACI SIERRA PEREZ</t>
   </si>
   <si>
-    <t>1907</t>
+    <t>1051829881</t>
   </si>
   <si>
-    <t>1906</t>
+    <t>MOISES ANDRES MARTINEZ ANGULO</t>
   </si>
   <si>
-    <t>1905</t>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
   </si>
   <si>
     <t>1904</t>
   </si>
   <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1019056897</t>
-  </si>
-  <si>
-    <t>LEONARDO DAVID PEREZ RANGEL</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
+    <t>1905</t>
   </si>
   <si>
     <t>8798151</t>
@@ -209,43 +236,34 @@
     <t>JORGE LUIS MENDOZA MARIMON</t>
   </si>
   <si>
-    <t>1050959833</t>
-  </si>
-  <si>
-    <t>ROBERTO CARLOS SANCHEZ BABILONIA</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>73199833</t>
-  </si>
-  <si>
-    <t>EMERSON DAVID MUÑOZ DE ARCO</t>
-  </si>
-  <si>
-    <t>39413148</t>
-  </si>
-  <si>
-    <t>YANETH BANGUERA ZARZA</t>
-  </si>
-  <si>
     <t>1047440086</t>
   </si>
   <si>
     <t>JEISON MORALES URRUCHURTO</t>
   </si>
   <si>
-    <t>1143324083</t>
-  </si>
-  <si>
-    <t>SILVIA PAOLA ANGARITA JARA</t>
-  </si>
-  <si>
     <t>73560123</t>
   </si>
   <si>
     <t>EDWIN DE JESUS CASTRO ROMERO</t>
+  </si>
+  <si>
+    <t>1047462085</t>
+  </si>
+  <si>
+    <t>ARNOLD ELIECER AVILA SARMIENTO</t>
+  </si>
+  <si>
+    <t>73082441</t>
+  </si>
+  <si>
+    <t>JAIME HERNANDO HOYOS MARTINEZ</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
   </si>
   <si>
     <t>1002429940</t>
@@ -260,40 +278,22 @@
     <t>JHONNY LUIS CASTILLA PADILLA</t>
   </si>
   <si>
-    <t>1045673525</t>
+    <t>1908</t>
   </si>
   <si>
-    <t>ALBERTO RAFAEL COTES ANGULO</t>
+    <t>1909</t>
   </si>
   <si>
-    <t>1047462085</t>
+    <t>1910</t>
   </si>
   <si>
-    <t>ARNOLD ELIECER AVILA SARMIENTO</t>
+    <t>1911</t>
   </si>
   <si>
-    <t>73082441</t>
+    <t>1912</t>
   </si>
   <si>
-    <t>JAIME HERNANDO HOYOS MARTINEZ</t>
-  </si>
-  <si>
-    <t>73192233</t>
-  </si>
-  <si>
-    <t>OSWALD MANUEL IGNACI SIERRA PEREZ</t>
-  </si>
-  <si>
-    <t>1047376584</t>
-  </si>
-  <si>
-    <t>DANIEL RICARDO ALVEAR CASTAÑEDA</t>
-  </si>
-  <si>
-    <t>1051829881</t>
-  </si>
-  <si>
-    <t>MOISES ANDRES MARTINEZ ANGULO</t>
+    <t>2001</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -392,7 +392,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -405,9 +407,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -607,23 +607,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -651,10 +651,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -707,7 +707,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18778FC1-9E2F-3339-782D-2A74BA84B0F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA372A5B-0E69-8FAD-F759-D0943DC8AF94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1058,7 +1058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22DE6CA-940C-4CFD-A68D-C64FDB195C24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604B7ECB-0E2D-4421-8785-DEC1DFD39400}">
   <dimension ref="B2:J385"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1236,7 +1236,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>21874</v>
+        <v>25774</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1250,16 +1250,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G17" s="18">
         <v>781242</v>
@@ -1273,16 +1273,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G18" s="18">
         <v>781242</v>
@@ -1296,16 +1296,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1319,16 +1319,16 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G20" s="18">
         <v>781242</v>
@@ -1348,10 +1348,10 @@
         <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G21" s="18">
         <v>781242</v>
@@ -1365,16 +1365,16 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G22" s="18">
         <v>781242</v>
@@ -1388,16 +1388,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1411,16 +1411,16 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G24" s="18">
         <v>781242</v>
@@ -1434,16 +1434,16 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G25" s="18">
         <v>781242</v>
@@ -1466,7 +1466,7 @@
         <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G26" s="18">
         <v>781242</v>
@@ -1480,16 +1480,16 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G27" s="18">
         <v>781242</v>
@@ -1503,16 +1503,16 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G28" s="18">
         <v>781242</v>
@@ -1526,16 +1526,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G29" s="18">
         <v>781242</v>
@@ -1549,16 +1549,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G30" s="18">
         <v>781242</v>
@@ -1578,10 +1578,10 @@
         <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F31" s="18">
-        <v>22916</v>
+        <v>25774</v>
       </c>
       <c r="G31" s="18">
         <v>781242</v>
@@ -1595,16 +1595,16 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F32" s="18">
-        <v>21874</v>
+        <v>24640</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1618,16 +1618,16 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G33" s="18">
         <v>781242</v>
@@ -1641,16 +1641,16 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G34" s="18">
         <v>781242</v>
@@ -1664,16 +1664,16 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F35" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G35" s="18">
         <v>781242</v>
@@ -1687,16 +1687,16 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G36" s="18">
         <v>781242</v>
@@ -1710,16 +1710,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G37" s="18">
         <v>781242</v>
@@ -1733,16 +1733,16 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G38" s="18">
         <v>781242</v>
@@ -1756,16 +1756,16 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F39" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G39" s="18">
         <v>781242</v>
@@ -1779,16 +1779,16 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F40" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G40" s="18">
         <v>781242</v>
@@ -1802,16 +1802,16 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F41" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G41" s="18">
         <v>781242</v>
@@ -1825,16 +1825,16 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F42" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G42" s="18">
         <v>781242</v>
@@ -1848,16 +1848,16 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F43" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G43" s="18">
         <v>781242</v>
@@ -1871,16 +1871,16 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F44" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G44" s="18">
         <v>781242</v>
@@ -1894,16 +1894,16 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E45" s="16" t="s">
         <v>24</v>
       </c>
       <c r="F45" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G45" s="18">
         <v>781242</v>
@@ -1917,16 +1917,16 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F46" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G46" s="18">
         <v>781242</v>
@@ -1940,16 +1940,16 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F47" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G47" s="18">
         <v>781242</v>
@@ -1963,16 +1963,16 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F48" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G48" s="18">
         <v>781242</v>
@@ -1986,16 +1986,16 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F49" s="18">
-        <v>25774</v>
+        <v>24640</v>
       </c>
       <c r="G49" s="18">
         <v>781242</v>
@@ -2009,13 +2009,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F50" s="18">
         <v>25774</v>
@@ -2032,13 +2032,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F51" s="18">
         <v>25774</v>
@@ -2055,16 +2055,16 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F52" s="18">
-        <v>25774</v>
+        <v>24640</v>
       </c>
       <c r="G52" s="18">
         <v>781242</v>
@@ -2078,13 +2078,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F53" s="18">
         <v>25774</v>
@@ -2101,16 +2101,16 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F54" s="18">
-        <v>25774</v>
+        <v>24640</v>
       </c>
       <c r="G54" s="18">
         <v>781242</v>
@@ -2124,13 +2124,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F55" s="18">
         <v>25774</v>
@@ -2147,13 +2147,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="16" t="s">
         <v>27</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>37</v>
       </c>
       <c r="F56" s="18">
         <v>25774</v>
@@ -2170,16 +2170,16 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>38</v>
-      </c>
       <c r="F57" s="18">
-        <v>25774</v>
+        <v>24640</v>
       </c>
       <c r="G57" s="18">
         <v>781242</v>
@@ -2193,13 +2193,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" s="16" t="s">
         <v>27</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>39</v>
       </c>
       <c r="F58" s="18">
         <v>25774</v>
@@ -2216,16 +2216,16 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D59" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>40</v>
-      </c>
       <c r="F59" s="18">
-        <v>25774</v>
+        <v>24640</v>
       </c>
       <c r="G59" s="18">
         <v>781242</v>
@@ -2239,13 +2239,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="16" t="s">
         <v>27</v>
-      </c>
-      <c r="D60" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>41</v>
       </c>
       <c r="F60" s="18">
         <v>25774</v>
@@ -2262,13 +2262,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="16" t="s">
         <v>28</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>42</v>
       </c>
       <c r="F61" s="18">
         <v>25774</v>
@@ -2285,16 +2285,16 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D62" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E62" s="16" t="s">
-        <v>43</v>
-      </c>
       <c r="F62" s="18">
-        <v>25774</v>
+        <v>24640</v>
       </c>
       <c r="G62" s="18">
         <v>781242</v>
@@ -2308,13 +2308,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D63" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" s="16" t="s">
         <v>28</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>44</v>
       </c>
       <c r="F63" s="18">
         <v>25774</v>
@@ -2331,16 +2331,16 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D64" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E64" s="16" t="s">
-        <v>45</v>
-      </c>
       <c r="F64" s="18">
-        <v>25774</v>
+        <v>24640</v>
       </c>
       <c r="G64" s="18">
         <v>781242</v>
@@ -2354,13 +2354,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D65" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" s="16" t="s">
         <v>28</v>
-      </c>
-      <c r="E65" s="16" t="s">
-        <v>46</v>
       </c>
       <c r="F65" s="18">
         <v>25774</v>
@@ -2377,13 +2377,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="F66" s="18">
         <v>25774</v>
@@ -2400,16 +2400,16 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="F67" s="18">
-        <v>25774</v>
+        <v>24640</v>
       </c>
       <c r="G67" s="18">
         <v>781242</v>
@@ -2423,13 +2423,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="F68" s="18">
         <v>25774</v>
@@ -2446,16 +2446,16 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="F69" s="18">
-        <v>25774</v>
+        <v>24640</v>
       </c>
       <c r="G69" s="18">
         <v>781242</v>
@@ -2469,13 +2469,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="F70" s="18">
         <v>25774</v>
@@ -2492,13 +2492,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="F71" s="18">
         <v>25774</v>
@@ -2515,16 +2515,16 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="F72" s="18">
-        <v>25774</v>
+        <v>24640</v>
       </c>
       <c r="G72" s="18">
         <v>781242</v>
@@ -2538,13 +2538,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F73" s="18">
         <v>25774</v>
@@ -2561,19 +2561,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F74" s="18">
-        <v>23187</v>
+        <v>24640</v>
       </c>
       <c r="G74" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2584,19 +2584,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F75" s="18">
-        <v>33125</v>
+        <v>25774</v>
       </c>
       <c r="G75" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2607,19 +2607,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F76" s="18">
-        <v>33125</v>
+        <v>24640</v>
       </c>
       <c r="G76" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2630,19 +2630,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F77" s="18">
-        <v>33125</v>
+        <v>25774</v>
       </c>
       <c r="G77" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2653,19 +2653,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F78" s="18">
-        <v>33125</v>
+        <v>24640</v>
       </c>
       <c r="G78" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2676,19 +2676,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="F79" s="18">
-        <v>33125</v>
+        <v>25774</v>
       </c>
       <c r="G79" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2699,19 +2699,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F80" s="18">
-        <v>33125</v>
+        <v>25774</v>
       </c>
       <c r="G80" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2722,19 +2722,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F81" s="18">
-        <v>33125</v>
+        <v>24640</v>
       </c>
       <c r="G81" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2745,19 +2745,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F82" s="18">
-        <v>33125</v>
+        <v>25774</v>
       </c>
       <c r="G82" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2768,16 +2768,16 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F83" s="18">
-        <v>21874</v>
+        <v>24640</v>
       </c>
       <c r="G83" s="18">
         <v>781242</v>
@@ -2791,16 +2791,16 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F84" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G84" s="18">
         <v>781242</v>
@@ -2814,16 +2814,16 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F85" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G85" s="18">
         <v>781242</v>
@@ -2837,16 +2837,16 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="F86" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G86" s="18">
         <v>781242</v>
@@ -2860,16 +2860,16 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F87" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G87" s="18">
         <v>781242</v>
@@ -2883,16 +2883,16 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F88" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G88" s="18">
         <v>781242</v>
@@ -2906,16 +2906,16 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="F89" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G89" s="18">
         <v>781242</v>
@@ -2929,16 +2929,16 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F90" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G90" s="18">
         <v>781242</v>
@@ -2952,16 +2952,16 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F91" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G91" s="18">
         <v>781242</v>
@@ -2975,16 +2975,16 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F92" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G92" s="18">
         <v>781242</v>
@@ -2998,16 +2998,16 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="F93" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G93" s="18">
         <v>781242</v>
@@ -3021,16 +3021,16 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F94" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G94" s="18">
         <v>781242</v>
@@ -3044,16 +3044,16 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="F95" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G95" s="18">
         <v>781242</v>
@@ -3067,16 +3067,16 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F96" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G96" s="18">
         <v>781242</v>
@@ -3090,16 +3090,16 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F97" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G97" s="18">
         <v>781242</v>
@@ -3113,16 +3113,16 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F98" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G98" s="18">
         <v>781242</v>
@@ -3136,16 +3136,16 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F99" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G99" s="18">
         <v>781242</v>
@@ -3159,16 +3159,16 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F100" s="18">
-        <v>24640</v>
+        <v>25774</v>
       </c>
       <c r="G100" s="18">
         <v>781242</v>
@@ -3182,13 +3182,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F101" s="18">
         <v>24640</v>
@@ -3205,16 +3205,16 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F102" s="18">
-        <v>24640</v>
+        <v>25774</v>
       </c>
       <c r="G102" s="18">
         <v>781242</v>
@@ -3228,16 +3228,16 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F103" s="18">
-        <v>24640</v>
+        <v>29509</v>
       </c>
       <c r="G103" s="18">
         <v>781242</v>
@@ -3251,16 +3251,16 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F104" s="18">
-        <v>24640</v>
+        <v>25774</v>
       </c>
       <c r="G104" s="18">
         <v>781242</v>
@@ -3274,13 +3274,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F105" s="18">
         <v>24640</v>
@@ -3297,16 +3297,16 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F106" s="18">
-        <v>24640</v>
+        <v>25774</v>
       </c>
       <c r="G106" s="18">
         <v>781242</v>
@@ -3320,13 +3320,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F107" s="18">
         <v>24640</v>
@@ -3343,16 +3343,16 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="E108" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F108" s="18">
-        <v>24640</v>
+        <v>25774</v>
       </c>
       <c r="G108" s="18">
         <v>781242</v>
@@ -3366,16 +3366,16 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F109" s="18">
-        <v>24640</v>
+        <v>29509</v>
       </c>
       <c r="G109" s="18">
         <v>781242</v>
@@ -3389,16 +3389,16 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F110" s="18">
-        <v>24640</v>
+        <v>25774</v>
       </c>
       <c r="G110" s="18">
         <v>781242</v>
@@ -3412,13 +3412,13 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F111" s="18">
         <v>24640</v>
@@ -3435,16 +3435,16 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F112" s="18">
-        <v>24640</v>
+        <v>25774</v>
       </c>
       <c r="G112" s="18">
         <v>781242</v>
@@ -3458,13 +3458,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="F113" s="18">
         <v>24640</v>
@@ -3481,16 +3481,16 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F114" s="18">
-        <v>24640</v>
+        <v>25774</v>
       </c>
       <c r="G114" s="18">
         <v>781242</v>
@@ -3504,16 +3504,16 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F115" s="18">
-        <v>24640</v>
+        <v>29509</v>
       </c>
       <c r="G115" s="18">
         <v>781242</v>
@@ -3527,16 +3527,16 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F116" s="18">
-        <v>24640</v>
+        <v>25774</v>
       </c>
       <c r="G116" s="18">
         <v>781242</v>
@@ -3550,13 +3550,13 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F117" s="18">
         <v>24640</v>
@@ -3573,16 +3573,16 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F118" s="18">
-        <v>24640</v>
+        <v>25774</v>
       </c>
       <c r="G118" s="18">
         <v>781242</v>
@@ -3596,13 +3596,13 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F119" s="18">
         <v>24640</v>
@@ -3619,16 +3619,16 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F120" s="18">
-        <v>24640</v>
+        <v>25774</v>
       </c>
       <c r="G120" s="18">
         <v>781242</v>
@@ -3642,16 +3642,16 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F121" s="18">
-        <v>24640</v>
+        <v>29509</v>
       </c>
       <c r="G121" s="18">
         <v>781242</v>
@@ -3665,16 +3665,16 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F122" s="18">
-        <v>24640</v>
+        <v>25774</v>
       </c>
       <c r="G122" s="18">
         <v>781242</v>
@@ -3688,13 +3688,13 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F123" s="18">
         <v>24640</v>
@@ -3711,16 +3711,16 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F124" s="18">
-        <v>24640</v>
+        <v>25774</v>
       </c>
       <c r="G124" s="18">
         <v>781242</v>
@@ -3734,13 +3734,13 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F125" s="18">
         <v>24640</v>
@@ -3757,16 +3757,16 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F126" s="18">
-        <v>21874</v>
+        <v>25774</v>
       </c>
       <c r="G126" s="18">
         <v>781242</v>
@@ -3780,16 +3780,16 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F127" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G127" s="18">
         <v>781242</v>
@@ -3803,16 +3803,16 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="F128" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G128" s="18">
         <v>781242</v>
@@ -3826,16 +3826,16 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="F129" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G129" s="18">
         <v>781242</v>
@@ -3849,16 +3849,16 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="F130" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G130" s="18">
         <v>781242</v>
@@ -3872,16 +3872,16 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="F131" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G131" s="18">
         <v>781242</v>
@@ -3895,16 +3895,16 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="F132" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G132" s="18">
         <v>781242</v>
@@ -3918,16 +3918,16 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="F133" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G133" s="18">
         <v>781242</v>
@@ -3941,16 +3941,16 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="F134" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G134" s="18">
         <v>781242</v>
@@ -3964,16 +3964,16 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="F135" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G135" s="18">
         <v>781242</v>
@@ -3987,16 +3987,16 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="F136" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G136" s="18">
         <v>781242</v>
@@ -4010,16 +4010,16 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="F137" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G137" s="18">
         <v>781242</v>
@@ -4033,16 +4033,16 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="F138" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G138" s="18">
         <v>781242</v>
@@ -4056,16 +4056,16 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F139" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G139" s="18">
         <v>781242</v>
@@ -4079,16 +4079,16 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="F140" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G140" s="18">
         <v>781242</v>
@@ -4102,16 +4102,16 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="F141" s="18">
-        <v>21874</v>
+        <v>24640</v>
       </c>
       <c r="G141" s="18">
         <v>781242</v>
@@ -4125,16 +4125,16 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="F142" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G142" s="18">
         <v>781242</v>
@@ -4148,16 +4148,16 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F143" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G143" s="18">
         <v>781242</v>
@@ -4171,16 +4171,16 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F144" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G144" s="18">
         <v>781242</v>
@@ -4194,16 +4194,16 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="F145" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G145" s="18">
         <v>781242</v>
@@ -4217,16 +4217,16 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="F146" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G146" s="18">
         <v>781242</v>
@@ -4240,16 +4240,16 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F147" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G147" s="18">
         <v>781242</v>
@@ -4263,16 +4263,16 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F148" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G148" s="18">
         <v>781242</v>
@@ -4286,16 +4286,16 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F149" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G149" s="18">
         <v>781242</v>
@@ -4309,16 +4309,16 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F150" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G150" s="18">
         <v>781242</v>
@@ -4332,16 +4332,16 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="F151" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G151" s="18">
         <v>781242</v>
@@ -4355,16 +4355,16 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F152" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G152" s="18">
         <v>781242</v>
@@ -4378,16 +4378,16 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="F153" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G153" s="18">
         <v>781242</v>
@@ -4401,16 +4401,16 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="F154" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G154" s="18">
         <v>781242</v>
@@ -4424,16 +4424,16 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="F155" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G155" s="18">
         <v>781242</v>
@@ -4447,16 +4447,16 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="F156" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G156" s="18">
         <v>781242</v>
@@ -4470,16 +4470,16 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F157" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G157" s="18">
         <v>781242</v>
@@ -4493,16 +4493,16 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="F158" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G158" s="18">
         <v>781242</v>
@@ -4516,16 +4516,16 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F159" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G159" s="18">
         <v>781242</v>
@@ -4539,16 +4539,16 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F160" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G160" s="18">
         <v>781242</v>
@@ -4562,16 +4562,16 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F161" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G161" s="18">
         <v>781242</v>
@@ -4585,16 +4585,16 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="F162" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G162" s="18">
         <v>781242</v>
@@ -4608,16 +4608,16 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F163" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G163" s="18">
         <v>781242</v>
@@ -4631,16 +4631,16 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F164" s="18">
-        <v>25774</v>
+        <v>22916</v>
       </c>
       <c r="G164" s="18">
         <v>781242</v>
@@ -4654,16 +4654,16 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="F165" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G165" s="18">
         <v>781242</v>
@@ -4677,16 +4677,16 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F166" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G166" s="18">
         <v>781242</v>
@@ -4700,16 +4700,16 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F167" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G167" s="18">
         <v>781242</v>
@@ -4723,16 +4723,16 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F168" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G168" s="18">
         <v>781242</v>
@@ -4746,16 +4746,16 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F169" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G169" s="18">
         <v>781242</v>
@@ -4769,16 +4769,16 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F170" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G170" s="18">
         <v>781242</v>
@@ -4792,16 +4792,16 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F171" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G171" s="18">
         <v>781242</v>
@@ -4815,16 +4815,16 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F172" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G172" s="18">
         <v>781242</v>
@@ -4838,16 +4838,16 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F173" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G173" s="18">
         <v>781242</v>
@@ -4861,16 +4861,16 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F174" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G174" s="18">
         <v>781242</v>
@@ -4884,16 +4884,16 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F175" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G175" s="18">
         <v>781242</v>
@@ -4907,16 +4907,16 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F176" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G176" s="18">
         <v>781242</v>
@@ -4930,16 +4930,16 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F177" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G177" s="18">
         <v>781242</v>
@@ -4953,16 +4953,16 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F178" s="18">
-        <v>25774</v>
+        <v>23958</v>
       </c>
       <c r="G178" s="18">
         <v>781242</v>
@@ -4976,16 +4976,16 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F179" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G179" s="18">
         <v>781242</v>
@@ -4999,16 +4999,16 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E180" s="16" t="s">
         <v>51</v>
       </c>
       <c r="F180" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G180" s="18">
         <v>781242</v>
@@ -5022,16 +5022,16 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F181" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G181" s="18">
         <v>781242</v>
@@ -5045,16 +5045,16 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F182" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G182" s="18">
         <v>781242</v>
@@ -5068,16 +5068,16 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F183" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G183" s="18">
         <v>781242</v>
@@ -5091,19 +5091,19 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="F184" s="18">
-        <v>23187</v>
+        <v>31249</v>
       </c>
       <c r="G184" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H184" s="19"/>
       <c r="I184" s="19"/>
@@ -5114,19 +5114,19 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="F185" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G185" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H185" s="19"/>
       <c r="I185" s="19"/>
@@ -5137,19 +5137,19 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F186" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G186" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H186" s="19"/>
       <c r="I186" s="19"/>
@@ -5160,19 +5160,19 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="F187" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G187" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H187" s="19"/>
       <c r="I187" s="19"/>
@@ -5183,19 +5183,19 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="F188" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G188" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H188" s="19"/>
       <c r="I188" s="19"/>
@@ -5206,19 +5206,19 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="F189" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G189" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H189" s="19"/>
       <c r="I189" s="19"/>
@@ -5229,19 +5229,19 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="F190" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G190" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H190" s="19"/>
       <c r="I190" s="19"/>
@@ -5252,19 +5252,19 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="F191" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G191" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H191" s="19"/>
       <c r="I191" s="19"/>
@@ -5275,19 +5275,19 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="F192" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G192" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H192" s="19"/>
       <c r="I192" s="19"/>
@@ -5298,16 +5298,16 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="F193" s="18">
-        <v>21874</v>
+        <v>31249</v>
       </c>
       <c r="G193" s="18">
         <v>781242</v>
@@ -5321,13 +5321,13 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="F194" s="18">
         <v>31249</v>
@@ -5344,13 +5344,13 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="F195" s="18">
         <v>31249</v>
@@ -5367,13 +5367,13 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="F196" s="18">
         <v>31249</v>
@@ -5390,13 +5390,13 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="F197" s="18">
         <v>31249</v>
@@ -5413,13 +5413,13 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="F198" s="18">
         <v>31249</v>
@@ -5436,13 +5436,13 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="F199" s="18">
         <v>31249</v>
@@ -5459,13 +5459,13 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="F200" s="18">
         <v>31249</v>
@@ -5482,13 +5482,13 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="F201" s="18">
         <v>31249</v>
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F202" s="18">
         <v>31249</v>
@@ -5528,13 +5528,13 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="F203" s="18">
         <v>31249</v>
@@ -5551,13 +5551,13 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="F204" s="18">
         <v>31249</v>
@@ -5574,13 +5574,13 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="F205" s="18">
         <v>31249</v>
@@ -5597,13 +5597,13 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="F206" s="18">
         <v>31249</v>
@@ -5620,13 +5620,13 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="F207" s="18">
         <v>31249</v>
@@ -5643,13 +5643,13 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="F208" s="18">
         <v>31249</v>
@@ -5666,13 +5666,13 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="F209" s="18">
         <v>31249</v>
@@ -5689,16 +5689,16 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F210" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G210" s="18">
         <v>781242</v>
@@ -5712,16 +5712,16 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="F211" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G211" s="18">
         <v>781242</v>
@@ -5735,16 +5735,16 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="F212" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G212" s="18">
         <v>781242</v>
@@ -5758,16 +5758,16 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="F213" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G213" s="18">
         <v>781242</v>
@@ -5781,16 +5781,16 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="F214" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G214" s="18">
         <v>781242</v>
@@ -5804,16 +5804,16 @@
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="F215" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G215" s="18">
         <v>781242</v>
@@ -5827,16 +5827,16 @@
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="F216" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G216" s="18">
         <v>781242</v>
@@ -5850,16 +5850,16 @@
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="F217" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G217" s="18">
         <v>781242</v>
@@ -5873,16 +5873,16 @@
         <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="F218" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G218" s="18">
         <v>781242</v>
@@ -5896,16 +5896,16 @@
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="F219" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G219" s="18">
         <v>781242</v>
@@ -5919,16 +5919,16 @@
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="F220" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G220" s="18">
         <v>781242</v>
@@ -5942,16 +5942,16 @@
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="F221" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G221" s="18">
         <v>781242</v>
@@ -5965,16 +5965,16 @@
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="F222" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G222" s="18">
         <v>781242</v>
@@ -5988,16 +5988,16 @@
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F223" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G223" s="18">
         <v>781242</v>
@@ -6011,16 +6011,16 @@
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="F224" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G224" s="18">
         <v>781242</v>
@@ -6034,16 +6034,16 @@
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="F225" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G225" s="18">
         <v>781242</v>
@@ -6057,16 +6057,16 @@
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="F226" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G226" s="18">
         <v>781242</v>
@@ -6080,16 +6080,16 @@
         <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="F227" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G227" s="18">
         <v>781242</v>
@@ -6103,16 +6103,16 @@
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="F228" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G228" s="18">
         <v>781242</v>
@@ -6126,16 +6126,16 @@
         <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="F229" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G229" s="18">
         <v>781242</v>
@@ -6149,16 +6149,16 @@
         <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="F230" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G230" s="18">
         <v>781242</v>
@@ -6172,16 +6172,16 @@
         <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="F231" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G231" s="18">
         <v>781242</v>
@@ -6195,16 +6195,16 @@
         <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F232" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G232" s="18">
         <v>781242</v>
@@ -6218,19 +6218,19 @@
         <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="F233" s="18">
-        <v>24640</v>
+        <v>33125</v>
       </c>
       <c r="G233" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H233" s="19"/>
       <c r="I233" s="19"/>
@@ -6241,16 +6241,16 @@
         <v>8</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F234" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G234" s="18">
         <v>781242</v>
@@ -6264,16 +6264,16 @@
         <v>8</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F235" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G235" s="18">
         <v>781242</v>
@@ -6287,19 +6287,19 @@
         <v>8</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="F236" s="18">
-        <v>21874</v>
+        <v>31249</v>
       </c>
       <c r="G236" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H236" s="19"/>
       <c r="I236" s="19"/>
@@ -6310,16 +6310,16 @@
         <v>8</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="F237" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G237" s="18">
         <v>828116</v>
@@ -6333,19 +6333,19 @@
         <v>8</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="F238" s="18">
         <v>31249</v>
       </c>
       <c r="G238" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H238" s="19"/>
       <c r="I238" s="19"/>
@@ -6362,13 +6362,13 @@
         <v>69</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="F239" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G239" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H239" s="19"/>
       <c r="I239" s="19"/>
@@ -6379,19 +6379,19 @@
         <v>8</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="F240" s="18">
         <v>31249</v>
       </c>
       <c r="G240" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H240" s="19"/>
       <c r="I240" s="19"/>
@@ -6402,16 +6402,16 @@
         <v>8</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="F241" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G241" s="18">
         <v>828116</v>
@@ -6425,19 +6425,19 @@
         <v>8</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="F242" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G242" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H242" s="19"/>
       <c r="I242" s="19"/>
@@ -6448,19 +6448,19 @@
         <v>8</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="F243" s="18">
         <v>31249</v>
       </c>
       <c r="G243" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H243" s="19"/>
       <c r="I243" s="19"/>
@@ -6471,19 +6471,19 @@
         <v>8</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="E244" s="16" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="F244" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G244" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H244" s="19"/>
       <c r="I244" s="19"/>
@@ -6494,19 +6494,19 @@
         <v>8</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="F245" s="18">
-        <v>23187</v>
+        <v>31249</v>
       </c>
       <c r="G245" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H245" s="19"/>
       <c r="I245" s="19"/>
@@ -6517,19 +6517,19 @@
         <v>8</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="F246" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G246" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H246" s="19"/>
       <c r="I246" s="19"/>
@@ -6540,19 +6540,19 @@
         <v>8</v>
       </c>
       <c r="C247" s="16" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="F247" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G247" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H247" s="19"/>
       <c r="I247" s="19"/>
@@ -6563,13 +6563,13 @@
         <v>8</v>
       </c>
       <c r="C248" s="16" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E248" s="16" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="F248" s="18">
         <v>33125</v>
@@ -6586,19 +6586,19 @@
         <v>8</v>
       </c>
       <c r="C249" s="16" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="F249" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G249" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H249" s="19"/>
       <c r="I249" s="19"/>
@@ -6609,19 +6609,19 @@
         <v>8</v>
       </c>
       <c r="C250" s="16" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="F250" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G250" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H250" s="19"/>
       <c r="I250" s="19"/>
@@ -6632,19 +6632,19 @@
         <v>8</v>
       </c>
       <c r="C251" s="16" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="D251" s="17" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="F251" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G251" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H251" s="19"/>
       <c r="I251" s="19"/>
@@ -6655,19 +6655,19 @@
         <v>8</v>
       </c>
       <c r="C252" s="16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E252" s="16" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="F252" s="18">
-        <v>13948</v>
+        <v>33125</v>
       </c>
       <c r="G252" s="18">
-        <v>498164</v>
+        <v>828116</v>
       </c>
       <c r="H252" s="19"/>
       <c r="I252" s="19"/>
@@ -6678,19 +6678,19 @@
         <v>8</v>
       </c>
       <c r="C253" s="16" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="F253" s="18">
-        <v>19926</v>
+        <v>31249</v>
       </c>
       <c r="G253" s="18">
-        <v>498164</v>
+        <v>781242</v>
       </c>
       <c r="H253" s="19"/>
       <c r="I253" s="19"/>
@@ -6701,19 +6701,19 @@
         <v>8</v>
       </c>
       <c r="C254" s="16" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="F254" s="18">
-        <v>19926</v>
+        <v>31249</v>
       </c>
       <c r="G254" s="18">
-        <v>498164</v>
+        <v>781242</v>
       </c>
       <c r="H254" s="19"/>
       <c r="I254" s="19"/>
@@ -6724,19 +6724,19 @@
         <v>8</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E255" s="16" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="F255" s="18">
-        <v>19926</v>
+        <v>31249</v>
       </c>
       <c r="G255" s="18">
-        <v>498164</v>
+        <v>781242</v>
       </c>
       <c r="H255" s="19"/>
       <c r="I255" s="19"/>
@@ -6747,19 +6747,19 @@
         <v>8</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="F256" s="18">
-        <v>19926</v>
+        <v>33125</v>
       </c>
       <c r="G256" s="18">
-        <v>498164</v>
+        <v>828116</v>
       </c>
       <c r="H256" s="19"/>
       <c r="I256" s="19"/>
@@ -6776,13 +6776,13 @@
         <v>73</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="F257" s="18">
-        <v>19926</v>
+        <v>33125</v>
       </c>
       <c r="G257" s="18">
-        <v>498164</v>
+        <v>781242</v>
       </c>
       <c r="H257" s="19"/>
       <c r="I257" s="19"/>
@@ -6793,19 +6793,19 @@
         <v>8</v>
       </c>
       <c r="C258" s="16" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="F258" s="18">
-        <v>19926</v>
+        <v>31249</v>
       </c>
       <c r="G258" s="18">
-        <v>498164</v>
+        <v>781242</v>
       </c>
       <c r="H258" s="19"/>
       <c r="I258" s="19"/>
@@ -6816,16 +6816,16 @@
         <v>8</v>
       </c>
       <c r="C259" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D259" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E259" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="D259" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E259" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F259" s="18">
-        <v>21874</v>
+        <v>31249</v>
       </c>
       <c r="G259" s="18">
         <v>781242</v>
@@ -6839,13 +6839,13 @@
         <v>8</v>
       </c>
       <c r="C260" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D260" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E260" s="16" t="s">
         <v>74</v>
-      </c>
-      <c r="D260" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E260" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F260" s="18">
         <v>31249</v>
@@ -6862,13 +6862,13 @@
         <v>8</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="D261" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E261" s="16" t="s">
         <v>75</v>
-      </c>
-      <c r="E261" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="F261" s="18">
         <v>31249</v>
@@ -6885,13 +6885,13 @@
         <v>8</v>
       </c>
       <c r="C262" s="16" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D262" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E262" s="16" t="s">
         <v>75</v>
-      </c>
-      <c r="E262" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F262" s="18">
         <v>31249</v>
@@ -6908,19 +6908,19 @@
         <v>8</v>
       </c>
       <c r="C263" s="16" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D263" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E263" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E263" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F263" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G263" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H263" s="19"/>
       <c r="I263" s="19"/>
@@ -6931,13 +6931,13 @@
         <v>8</v>
       </c>
       <c r="C264" s="16" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="D264" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E264" s="16" t="s">
         <v>75</v>
-      </c>
-      <c r="E264" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="F264" s="18">
         <v>31249</v>
@@ -6954,13 +6954,13 @@
         <v>8</v>
       </c>
       <c r="C265" s="16" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="D265" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E265" s="16" t="s">
         <v>75</v>
-      </c>
-      <c r="E265" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F265" s="18">
         <v>31249</v>
@@ -6977,13 +6977,13 @@
         <v>8</v>
       </c>
       <c r="C266" s="16" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="D266" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E266" s="16" t="s">
         <v>75</v>
-      </c>
-      <c r="E266" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="F266" s="18">
         <v>31249</v>
@@ -7000,19 +7000,19 @@
         <v>8</v>
       </c>
       <c r="C267" s="16" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D267" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E267" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E267" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="F267" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G267" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H267" s="19"/>
       <c r="I267" s="19"/>
@@ -7023,13 +7023,13 @@
         <v>8</v>
       </c>
       <c r="C268" s="16" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="D268" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E268" s="16" t="s">
         <v>75</v>
-      </c>
-      <c r="E268" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="F268" s="18">
         <v>31249</v>
@@ -7046,13 +7046,13 @@
         <v>8</v>
       </c>
       <c r="C269" s="16" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D269" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E269" s="16" t="s">
         <v>75</v>
-      </c>
-      <c r="E269" s="16" t="s">
-        <v>21</v>
       </c>
       <c r="F269" s="18">
         <v>31249</v>
@@ -7069,19 +7069,19 @@
         <v>8</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D270" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E270" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E270" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="F270" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G270" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H270" s="19"/>
       <c r="I270" s="19"/>
@@ -7092,19 +7092,19 @@
         <v>8</v>
       </c>
       <c r="C271" s="16" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D271" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E271" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E271" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="F271" s="18">
-        <v>31249</v>
+        <v>19926</v>
       </c>
       <c r="G271" s="18">
-        <v>781242</v>
+        <v>498164</v>
       </c>
       <c r="H271" s="19"/>
       <c r="I271" s="19"/>
@@ -7115,13 +7115,13 @@
         <v>8</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="D272" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E272" s="16" t="s">
         <v>75</v>
-      </c>
-      <c r="E272" s="16" t="s">
-        <v>24</v>
       </c>
       <c r="F272" s="18">
         <v>31249</v>
@@ -7138,19 +7138,19 @@
         <v>8</v>
       </c>
       <c r="C273" s="16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D273" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E273" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E273" s="16" t="s">
-        <v>25</v>
-      </c>
       <c r="F273" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G273" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H273" s="19"/>
       <c r="I273" s="19"/>
@@ -7161,16 +7161,16 @@
         <v>8</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D274" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E274" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E274" s="16" t="s">
-        <v>26</v>
-      </c>
       <c r="F274" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G274" s="18">
         <v>781242</v>
@@ -7184,13 +7184,13 @@
         <v>8</v>
       </c>
       <c r="C275" s="16" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="D275" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E275" s="16" t="s">
         <v>75</v>
-      </c>
-      <c r="E275" s="16" t="s">
-        <v>29</v>
       </c>
       <c r="F275" s="18">
         <v>31249</v>
@@ -7207,16 +7207,16 @@
         <v>8</v>
       </c>
       <c r="C276" s="16" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="D276" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E276" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E276" s="16" t="s">
-        <v>30</v>
-      </c>
       <c r="F276" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G276" s="18">
         <v>781242</v>
@@ -7230,16 +7230,16 @@
         <v>8</v>
       </c>
       <c r="C277" s="16" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="D277" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E277" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E277" s="16" t="s">
-        <v>31</v>
-      </c>
       <c r="F277" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G277" s="18">
         <v>781242</v>
@@ -7253,16 +7253,16 @@
         <v>8</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="D278" s="17" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="E278" s="16" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="F278" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G278" s="18">
         <v>781242</v>
@@ -7276,16 +7276,16 @@
         <v>8</v>
       </c>
       <c r="C279" s="16" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D279" s="17" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E279" s="16" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="F279" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G279" s="18">
         <v>781242</v>
@@ -7299,19 +7299,19 @@
         <v>8</v>
       </c>
       <c r="C280" s="16" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D280" s="17" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E280" s="16" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="F280" s="18">
-        <v>25774</v>
+        <v>33125</v>
       </c>
       <c r="G280" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H280" s="19"/>
       <c r="I280" s="19"/>
@@ -7322,16 +7322,16 @@
         <v>8</v>
       </c>
       <c r="C281" s="16" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="D281" s="17" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="E281" s="16" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="F281" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G281" s="18">
         <v>781242</v>
@@ -7345,16 +7345,16 @@
         <v>8</v>
       </c>
       <c r="C282" s="16" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="D282" s="17" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="E282" s="16" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="F282" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G282" s="18">
         <v>781242</v>
@@ -7368,16 +7368,16 @@
         <v>8</v>
       </c>
       <c r="C283" s="16" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="D283" s="17" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="E283" s="16" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="F283" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G283" s="18">
         <v>781242</v>
@@ -7391,19 +7391,19 @@
         <v>8</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E284" s="16" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="F284" s="18">
-        <v>25774</v>
+        <v>33125</v>
       </c>
       <c r="G284" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H284" s="19"/>
       <c r="I284" s="19"/>
@@ -7414,16 +7414,16 @@
         <v>8</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="D285" s="17" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="E285" s="16" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="F285" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G285" s="18">
         <v>781242</v>
@@ -7437,16 +7437,16 @@
         <v>8</v>
       </c>
       <c r="C286" s="16" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D286" s="17" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E286" s="16" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F286" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G286" s="18">
         <v>781242</v>
@@ -7460,19 +7460,19 @@
         <v>8</v>
       </c>
       <c r="C287" s="16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D287" s="17" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E287" s="16" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F287" s="18">
-        <v>25774</v>
+        <v>33125</v>
       </c>
       <c r="G287" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H287" s="19"/>
       <c r="I287" s="19"/>
@@ -7483,19 +7483,19 @@
         <v>8</v>
       </c>
       <c r="C288" s="16" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D288" s="17" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E288" s="16" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="F288" s="18">
-        <v>25774</v>
+        <v>19926</v>
       </c>
       <c r="G288" s="18">
-        <v>781242</v>
+        <v>498164</v>
       </c>
       <c r="H288" s="19"/>
       <c r="I288" s="19"/>
@@ -7506,16 +7506,16 @@
         <v>8</v>
       </c>
       <c r="C289" s="16" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="D289" s="17" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E289" s="16" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="F289" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G289" s="18">
         <v>781242</v>
@@ -7529,19 +7529,19 @@
         <v>8</v>
       </c>
       <c r="C290" s="16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D290" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E290" s="16" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="F290" s="18">
-        <v>25774</v>
+        <v>33125</v>
       </c>
       <c r="G290" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H290" s="19"/>
       <c r="I290" s="19"/>
@@ -7552,16 +7552,16 @@
         <v>8</v>
       </c>
       <c r="C291" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D291" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E291" s="16" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="F291" s="18">
-        <v>25774</v>
+        <v>33125</v>
       </c>
       <c r="G291" s="18">
         <v>781242</v>
@@ -7575,16 +7575,16 @@
         <v>8</v>
       </c>
       <c r="C292" s="16" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="D292" s="17" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="E292" s="16" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="F292" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G292" s="18">
         <v>781242</v>
@@ -7598,16 +7598,16 @@
         <v>8</v>
       </c>
       <c r="C293" s="16" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="D293" s="17" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="E293" s="16" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="F293" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G293" s="18">
         <v>781242</v>
@@ -7621,16 +7621,16 @@
         <v>8</v>
       </c>
       <c r="C294" s="16" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="D294" s="17" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="E294" s="16" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="F294" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G294" s="18">
         <v>781242</v>
@@ -7644,16 +7644,16 @@
         <v>8</v>
       </c>
       <c r="C295" s="16" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="D295" s="17" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="E295" s="16" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="F295" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G295" s="18">
         <v>781242</v>
@@ -7667,16 +7667,16 @@
         <v>8</v>
       </c>
       <c r="C296" s="16" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D296" s="17" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E296" s="16" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="F296" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G296" s="18">
         <v>781242</v>
@@ -7690,19 +7690,19 @@
         <v>8</v>
       </c>
       <c r="C297" s="16" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D297" s="17" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E297" s="16" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="F297" s="18">
-        <v>25774</v>
+        <v>33125</v>
       </c>
       <c r="G297" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H297" s="19"/>
       <c r="I297" s="19"/>
@@ -7713,16 +7713,16 @@
         <v>8</v>
       </c>
       <c r="C298" s="16" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="D298" s="17" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="E298" s="16" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="F298" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G298" s="18">
         <v>781242</v>
@@ -7736,16 +7736,16 @@
         <v>8</v>
       </c>
       <c r="C299" s="16" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="D299" s="17" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="E299" s="16" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="F299" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G299" s="18">
         <v>781242</v>
@@ -7759,16 +7759,16 @@
         <v>8</v>
       </c>
       <c r="C300" s="16" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="D300" s="17" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="E300" s="16" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="F300" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G300" s="18">
         <v>781242</v>
@@ -7782,19 +7782,19 @@
         <v>8</v>
       </c>
       <c r="C301" s="16" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D301" s="17" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E301" s="16" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="F301" s="18">
-        <v>25774</v>
+        <v>33125</v>
       </c>
       <c r="G301" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H301" s="19"/>
       <c r="I301" s="19"/>
@@ -7805,19 +7805,19 @@
         <v>8</v>
       </c>
       <c r="C302" s="16" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="D302" s="17" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="E302" s="16" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F302" s="18">
-        <v>23187</v>
+        <v>31249</v>
       </c>
       <c r="G302" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H302" s="19"/>
       <c r="I302" s="19"/>
@@ -7828,19 +7828,19 @@
         <v>8</v>
       </c>
       <c r="C303" s="16" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D303" s="17" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E303" s="16" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="F303" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G303" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H303" s="19"/>
       <c r="I303" s="19"/>
@@ -7857,7 +7857,7 @@
         <v>77</v>
       </c>
       <c r="E304" s="16" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="F304" s="18">
         <v>33125</v>
@@ -7874,19 +7874,19 @@
         <v>8</v>
       </c>
       <c r="C305" s="16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D305" s="17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E305" s="16" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="F305" s="18">
-        <v>33125</v>
+        <v>19926</v>
       </c>
       <c r="G305" s="18">
-        <v>828116</v>
+        <v>498164</v>
       </c>
       <c r="H305" s="19"/>
       <c r="I305" s="19"/>
@@ -7897,19 +7897,19 @@
         <v>8</v>
       </c>
       <c r="C306" s="16" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="D306" s="17" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="E306" s="16" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="F306" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G306" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H306" s="19"/>
       <c r="I306" s="19"/>
@@ -7920,13 +7920,13 @@
         <v>8</v>
       </c>
       <c r="C307" s="16" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D307" s="17" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E307" s="16" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="F307" s="18">
         <v>33125</v>
@@ -7943,19 +7943,19 @@
         <v>8</v>
       </c>
       <c r="C308" s="16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D308" s="17" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E308" s="16" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="F308" s="18">
         <v>33125</v>
       </c>
       <c r="G308" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H308" s="19"/>
       <c r="I308" s="19"/>
@@ -7966,19 +7966,19 @@
         <v>8</v>
       </c>
       <c r="C309" s="16" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="D309" s="17" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="E309" s="16" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="F309" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G309" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H309" s="19"/>
       <c r="I309" s="19"/>
@@ -7989,19 +7989,19 @@
         <v>8</v>
       </c>
       <c r="C310" s="16" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="D310" s="17" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="E310" s="16" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="F310" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G310" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H310" s="19"/>
       <c r="I310" s="19"/>
@@ -8012,19 +8012,19 @@
         <v>8</v>
       </c>
       <c r="C311" s="16" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="D311" s="17" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="E311" s="16" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F311" s="18">
-        <v>21874</v>
+        <v>31249</v>
       </c>
       <c r="G311" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H311" s="19"/>
       <c r="I311" s="19"/>
@@ -8035,19 +8035,19 @@
         <v>8</v>
       </c>
       <c r="C312" s="16" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="D312" s="17" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="E312" s="16" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="F312" s="18">
         <v>31249</v>
       </c>
       <c r="G312" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H312" s="19"/>
       <c r="I312" s="19"/>
@@ -8058,19 +8058,19 @@
         <v>8</v>
       </c>
       <c r="C313" s="16" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D313" s="17" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="E313" s="16" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="F313" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G313" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H313" s="19"/>
       <c r="I313" s="19"/>
@@ -8081,13 +8081,13 @@
         <v>8</v>
       </c>
       <c r="C314" s="16" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D314" s="17" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="E314" s="16" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="F314" s="18">
         <v>33125</v>
@@ -8104,19 +8104,19 @@
         <v>8</v>
       </c>
       <c r="C315" s="16" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="D315" s="17" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="E315" s="16" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="F315" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G315" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H315" s="19"/>
       <c r="I315" s="19"/>
@@ -8127,19 +8127,19 @@
         <v>8</v>
       </c>
       <c r="C316" s="16" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="D316" s="17" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="E316" s="16" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="F316" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G316" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H316" s="19"/>
       <c r="I316" s="19"/>
@@ -8150,19 +8150,19 @@
         <v>8</v>
       </c>
       <c r="C317" s="16" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D317" s="17" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="E317" s="16" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="F317" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G317" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H317" s="19"/>
       <c r="I317" s="19"/>
@@ -8173,13 +8173,13 @@
         <v>8</v>
       </c>
       <c r="C318" s="16" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D318" s="17" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E318" s="16" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="F318" s="18">
         <v>33125</v>
@@ -8196,19 +8196,19 @@
         <v>8</v>
       </c>
       <c r="C319" s="16" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="D319" s="17" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="E319" s="16" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="F319" s="18">
-        <v>33125</v>
+        <v>31249</v>
       </c>
       <c r="G319" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H319" s="19"/>
       <c r="I319" s="19"/>
@@ -8219,16 +8219,16 @@
         <v>8</v>
       </c>
       <c r="C320" s="16" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D320" s="17" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E320" s="16" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="F320" s="18">
-        <v>21874</v>
+        <v>31249</v>
       </c>
       <c r="G320" s="18">
         <v>781242</v>
@@ -8242,19 +8242,19 @@
         <v>8</v>
       </c>
       <c r="C321" s="16" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D321" s="17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E321" s="16" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="F321" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G321" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H321" s="19"/>
       <c r="I321" s="19"/>
@@ -8265,19 +8265,19 @@
         <v>8</v>
       </c>
       <c r="C322" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D322" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E322" s="16" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="F322" s="18">
-        <v>31249</v>
+        <v>19926</v>
       </c>
       <c r="G322" s="18">
-        <v>781242</v>
+        <v>498164</v>
       </c>
       <c r="H322" s="19"/>
       <c r="I322" s="19"/>
@@ -8288,13 +8288,13 @@
         <v>8</v>
       </c>
       <c r="C323" s="16" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="D323" s="17" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="E323" s="16" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="F323" s="18">
         <v>31249</v>
@@ -8311,19 +8311,19 @@
         <v>8</v>
       </c>
       <c r="C324" s="16" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D324" s="17" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="E324" s="16" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="F324" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G324" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H324" s="19"/>
       <c r="I324" s="19"/>
@@ -8334,16 +8334,16 @@
         <v>8</v>
       </c>
       <c r="C325" s="16" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D325" s="17" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E325" s="16" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="F325" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G325" s="18">
         <v>781242</v>
@@ -8357,13 +8357,13 @@
         <v>8</v>
       </c>
       <c r="C326" s="16" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="D326" s="17" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E326" s="16" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="F326" s="18">
         <v>31249</v>
@@ -8380,13 +8380,13 @@
         <v>8</v>
       </c>
       <c r="C327" s="16" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="D327" s="17" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="E327" s="16" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="F327" s="18">
         <v>31249</v>
@@ -8403,13 +8403,13 @@
         <v>8</v>
       </c>
       <c r="C328" s="16" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="D328" s="17" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="E328" s="16" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="F328" s="18">
         <v>31249</v>
@@ -8426,13 +8426,13 @@
         <v>8</v>
       </c>
       <c r="C329" s="16" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="D329" s="17" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="E329" s="16" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="F329" s="18">
         <v>31249</v>
@@ -8449,13 +8449,13 @@
         <v>8</v>
       </c>
       <c r="C330" s="16" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="D330" s="17" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="E330" s="16" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="F330" s="18">
         <v>31249</v>
@@ -8472,19 +8472,19 @@
         <v>8</v>
       </c>
       <c r="C331" s="16" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="D331" s="17" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="E331" s="16" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="F331" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G331" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H331" s="19"/>
       <c r="I331" s="19"/>
@@ -8495,13 +8495,13 @@
         <v>8</v>
       </c>
       <c r="C332" s="16" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D332" s="17" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="E332" s="16" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="F332" s="18">
         <v>31249</v>
@@ -8518,13 +8518,13 @@
         <v>8</v>
       </c>
       <c r="C333" s="16" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="D333" s="17" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="E333" s="16" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="F333" s="18">
         <v>31249</v>
@@ -8541,16 +8541,16 @@
         <v>8</v>
       </c>
       <c r="C334" s="16" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="D334" s="17" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="E334" s="16" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="F334" s="18">
-        <v>23958</v>
+        <v>31249</v>
       </c>
       <c r="G334" s="18">
         <v>781242</v>
@@ -8564,19 +8564,19 @@
         <v>8</v>
       </c>
       <c r="C335" s="16" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D335" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E335" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E335" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F335" s="18">
-        <v>21874</v>
+        <v>33125</v>
       </c>
       <c r="G335" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H335" s="19"/>
       <c r="I335" s="19"/>
@@ -8587,19 +8587,19 @@
         <v>8</v>
       </c>
       <c r="C336" s="16" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="D336" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E336" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E336" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F336" s="18">
         <v>31249</v>
       </c>
       <c r="G336" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H336" s="19"/>
       <c r="I336" s="19"/>
@@ -8610,19 +8610,19 @@
         <v>8</v>
       </c>
       <c r="C337" s="16" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D337" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E337" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E337" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F337" s="18">
         <v>31249</v>
       </c>
       <c r="G337" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H337" s="19"/>
       <c r="I337" s="19"/>
@@ -8633,19 +8633,19 @@
         <v>8</v>
       </c>
       <c r="C338" s="16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D338" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E338" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E338" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F338" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G338" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H338" s="19"/>
       <c r="I338" s="19"/>
@@ -8656,19 +8656,19 @@
         <v>8</v>
       </c>
       <c r="C339" s="16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D339" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E339" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E339" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F339" s="18">
-        <v>31249</v>
+        <v>19926</v>
       </c>
       <c r="G339" s="18">
-        <v>737717</v>
+        <v>498164</v>
       </c>
       <c r="H339" s="19"/>
       <c r="I339" s="19"/>
@@ -8679,19 +8679,19 @@
         <v>8</v>
       </c>
       <c r="C340" s="16" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="D340" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E340" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E340" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F340" s="18">
         <v>31249</v>
       </c>
       <c r="G340" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H340" s="19"/>
       <c r="I340" s="19"/>
@@ -8702,19 +8702,19 @@
         <v>8</v>
       </c>
       <c r="C341" s="16" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D341" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E341" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E341" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="F341" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G341" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H341" s="19"/>
       <c r="I341" s="19"/>
@@ -8725,19 +8725,19 @@
         <v>8</v>
       </c>
       <c r="C342" s="16" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D342" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E342" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E342" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F342" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G342" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H342" s="19"/>
       <c r="I342" s="19"/>
@@ -8748,19 +8748,19 @@
         <v>8</v>
       </c>
       <c r="C343" s="16" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="D343" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E343" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E343" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="F343" s="18">
         <v>31249</v>
       </c>
       <c r="G343" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H343" s="19"/>
       <c r="I343" s="19"/>
@@ -8771,19 +8771,19 @@
         <v>8</v>
       </c>
       <c r="C344" s="16" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="D344" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E344" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E344" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="F344" s="18">
         <v>31249</v>
       </c>
       <c r="G344" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H344" s="19"/>
       <c r="I344" s="19"/>
@@ -8794,19 +8794,19 @@
         <v>8</v>
       </c>
       <c r="C345" s="16" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="D345" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E345" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E345" s="16" t="s">
-        <v>21</v>
-      </c>
       <c r="F345" s="18">
         <v>31249</v>
       </c>
       <c r="G345" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H345" s="19"/>
       <c r="I345" s="19"/>
@@ -8817,19 +8817,19 @@
         <v>8</v>
       </c>
       <c r="C346" s="16" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="D346" s="17" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="E346" s="16" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="F346" s="18">
         <v>31249</v>
       </c>
       <c r="G346" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H346" s="19"/>
       <c r="I346" s="19"/>
@@ -8840,19 +8840,19 @@
         <v>8</v>
       </c>
       <c r="C347" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D347" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E347" s="16" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="F347" s="18">
         <v>31249</v>
       </c>
       <c r="G347" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H347" s="19"/>
       <c r="I347" s="19"/>
@@ -8863,19 +8863,19 @@
         <v>8</v>
       </c>
       <c r="C348" s="16" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D348" s="17" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="E348" s="16" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="F348" s="18">
-        <v>31249</v>
+        <v>33125</v>
       </c>
       <c r="G348" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H348" s="19"/>
       <c r="I348" s="19"/>
@@ -8886,19 +8886,19 @@
         <v>8</v>
       </c>
       <c r="C349" s="16" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="D349" s="17" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E349" s="16" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="F349" s="18">
         <v>31249</v>
       </c>
       <c r="G349" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H349" s="19"/>
       <c r="I349" s="19"/>
@@ -8909,19 +8909,19 @@
         <v>8</v>
       </c>
       <c r="C350" s="16" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="D350" s="17" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="E350" s="16" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="F350" s="18">
         <v>31249</v>
       </c>
       <c r="G350" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H350" s="19"/>
       <c r="I350" s="19"/>
@@ -8932,19 +8932,19 @@
         <v>8</v>
       </c>
       <c r="C351" s="16" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="D351" s="17" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="E351" s="16" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="F351" s="18">
         <v>31249</v>
       </c>
       <c r="G351" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H351" s="19"/>
       <c r="I351" s="19"/>
@@ -8955,19 +8955,19 @@
         <v>8</v>
       </c>
       <c r="C352" s="16" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D352" s="17" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="E352" s="16" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="F352" s="18">
-        <v>29509</v>
+        <v>33125</v>
       </c>
       <c r="G352" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H352" s="19"/>
       <c r="I352" s="19"/>
@@ -8978,19 +8978,19 @@
         <v>8</v>
       </c>
       <c r="C353" s="16" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="D353" s="17" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="E353" s="16" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="F353" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G353" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H353" s="19"/>
       <c r="I353" s="19"/>
@@ -9001,19 +9001,19 @@
         <v>8</v>
       </c>
       <c r="C354" s="16" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D354" s="17" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E354" s="16" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="F354" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G354" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H354" s="19"/>
       <c r="I354" s="19"/>
@@ -9024,19 +9024,19 @@
         <v>8</v>
       </c>
       <c r="C355" s="16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D355" s="17" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E355" s="16" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="F355" s="18">
-        <v>29509</v>
+        <v>33125</v>
       </c>
       <c r="G355" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H355" s="19"/>
       <c r="I355" s="19"/>
@@ -9047,19 +9047,19 @@
         <v>8</v>
       </c>
       <c r="C356" s="16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D356" s="17" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E356" s="16" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="F356" s="18">
-        <v>29509</v>
+        <v>19926</v>
       </c>
       <c r="G356" s="18">
-        <v>737717</v>
+        <v>498164</v>
       </c>
       <c r="H356" s="19"/>
       <c r="I356" s="19"/>
@@ -9070,19 +9070,19 @@
         <v>8</v>
       </c>
       <c r="C357" s="16" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="D357" s="17" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="E357" s="16" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="F357" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G357" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H357" s="19"/>
       <c r="I357" s="19"/>
@@ -9093,19 +9093,19 @@
         <v>8</v>
       </c>
       <c r="C358" s="16" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D358" s="17" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="E358" s="16" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="F358" s="18">
-        <v>29509</v>
+        <v>33125</v>
       </c>
       <c r="G358" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H358" s="19"/>
       <c r="I358" s="19"/>
@@ -9116,19 +9116,19 @@
         <v>8</v>
       </c>
       <c r="C359" s="16" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D359" s="17" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E359" s="16" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="F359" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G359" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H359" s="19"/>
       <c r="I359" s="19"/>
@@ -9139,19 +9139,19 @@
         <v>8</v>
       </c>
       <c r="C360" s="16" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="D360" s="17" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="E360" s="16" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="F360" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G360" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H360" s="19"/>
       <c r="I360" s="19"/>
@@ -9162,19 +9162,19 @@
         <v>8</v>
       </c>
       <c r="C361" s="16" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="D361" s="17" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="E361" s="16" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="F361" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G361" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H361" s="19"/>
       <c r="I361" s="19"/>
@@ -9185,19 +9185,19 @@
         <v>8</v>
       </c>
       <c r="C362" s="16" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="D362" s="17" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="E362" s="16" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="F362" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G362" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H362" s="19"/>
       <c r="I362" s="19"/>
@@ -9208,19 +9208,19 @@
         <v>8</v>
       </c>
       <c r="C363" s="16" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="D363" s="17" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="E363" s="16" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="F363" s="18">
-        <v>29509</v>
+        <v>21874</v>
       </c>
       <c r="G363" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H363" s="19"/>
       <c r="I363" s="19"/>
@@ -9231,19 +9231,19 @@
         <v>8</v>
       </c>
       <c r="C364" s="16" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D364" s="17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E364" s="16" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="F364" s="18">
-        <v>29509</v>
+        <v>21874</v>
       </c>
       <c r="G364" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H364" s="19"/>
       <c r="I364" s="19"/>
@@ -9254,19 +9254,19 @@
         <v>8</v>
       </c>
       <c r="C365" s="16" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="D365" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E365" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="E365" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F365" s="18">
-        <v>21874</v>
+        <v>23187</v>
       </c>
       <c r="G365" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H365" s="19"/>
       <c r="I365" s="19"/>
@@ -9277,16 +9277,16 @@
         <v>8</v>
       </c>
       <c r="C366" s="16" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="D366" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E366" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="E366" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F366" s="18">
-        <v>31249</v>
+        <v>21874</v>
       </c>
       <c r="G366" s="18">
         <v>781242</v>
@@ -9300,16 +9300,16 @@
         <v>8</v>
       </c>
       <c r="C367" s="16" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="D367" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E367" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="E367" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F367" s="18">
-        <v>31249</v>
+        <v>21874</v>
       </c>
       <c r="G367" s="18">
         <v>781242</v>
@@ -9323,16 +9323,16 @@
         <v>8</v>
       </c>
       <c r="C368" s="16" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="D368" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E368" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="E368" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F368" s="18">
-        <v>31249</v>
+        <v>21874</v>
       </c>
       <c r="G368" s="18">
         <v>781242</v>
@@ -9346,19 +9346,19 @@
         <v>8</v>
       </c>
       <c r="C369" s="16" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="D369" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E369" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="E369" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F369" s="18">
-        <v>31249</v>
+        <v>23187</v>
       </c>
       <c r="G369" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H369" s="19"/>
       <c r="I369" s="19"/>
@@ -9369,16 +9369,16 @@
         <v>8</v>
       </c>
       <c r="C370" s="16" t="s">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="D370" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E370" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="E370" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F370" s="18">
-        <v>31249</v>
+        <v>21874</v>
       </c>
       <c r="G370" s="18">
         <v>781242</v>
@@ -9392,16 +9392,16 @@
         <v>8</v>
       </c>
       <c r="C371" s="16" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="D371" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E371" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="E371" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="F371" s="18">
-        <v>31249</v>
+        <v>21874</v>
       </c>
       <c r="G371" s="18">
         <v>781242</v>
@@ -9415,19 +9415,19 @@
         <v>8</v>
       </c>
       <c r="C372" s="16" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D372" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E372" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="E372" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F372" s="18">
-        <v>31249</v>
+        <v>23187</v>
       </c>
       <c r="G372" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H372" s="19"/>
       <c r="I372" s="19"/>
@@ -9438,19 +9438,19 @@
         <v>8</v>
       </c>
       <c r="C373" s="16" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D373" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E373" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="E373" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="F373" s="18">
-        <v>31249</v>
+        <v>13948</v>
       </c>
       <c r="G373" s="18">
-        <v>781242</v>
+        <v>498164</v>
       </c>
       <c r="H373" s="19"/>
       <c r="I373" s="19"/>
@@ -9461,16 +9461,16 @@
         <v>8</v>
       </c>
       <c r="C374" s="16" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="D374" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E374" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="E374" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="F374" s="18">
-        <v>31249</v>
+        <v>21874</v>
       </c>
       <c r="G374" s="18">
         <v>781242</v>
@@ -9484,19 +9484,19 @@
         <v>8</v>
       </c>
       <c r="C375" s="16" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D375" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E375" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="E375" s="16" t="s">
-        <v>21</v>
-      </c>
       <c r="F375" s="18">
-        <v>31249</v>
+        <v>23187</v>
       </c>
       <c r="G375" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H375" s="19"/>
       <c r="I375" s="19"/>
@@ -9507,16 +9507,16 @@
         <v>8</v>
       </c>
       <c r="C376" s="16" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D376" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E376" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="E376" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="F376" s="18">
-        <v>31249</v>
+        <v>21874</v>
       </c>
       <c r="G376" s="18">
         <v>781242</v>
@@ -9530,16 +9530,16 @@
         <v>8</v>
       </c>
       <c r="C377" s="16" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="D377" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E377" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="E377" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="F377" s="18">
-        <v>31249</v>
+        <v>21874</v>
       </c>
       <c r="G377" s="18">
         <v>781242</v>
@@ -9553,16 +9553,16 @@
         <v>8</v>
       </c>
       <c r="C378" s="16" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="D378" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E378" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="E378" s="16" t="s">
-        <v>24</v>
-      </c>
       <c r="F378" s="18">
-        <v>31249</v>
+        <v>21874</v>
       </c>
       <c r="G378" s="18">
         <v>781242</v>
@@ -9576,16 +9576,16 @@
         <v>8</v>
       </c>
       <c r="C379" s="22" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="D379" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E379" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="E379" s="22" t="s">
-        <v>25</v>
-      </c>
       <c r="F379" s="24">
-        <v>31249</v>
+        <v>21874</v>
       </c>
       <c r="G379" s="24">
         <v>781242</v>
